--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Tgfa</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H2">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.25269126024</v>
+        <v>0.7739986750222223</v>
       </c>
       <c r="R2">
-        <v>2.27422134216</v>
+        <v>6.9659880752</v>
       </c>
       <c r="S2">
-        <v>0.0100360027308206</v>
+        <v>0.01704663648797614</v>
       </c>
       <c r="T2">
-        <v>0.0100360027308206</v>
+        <v>0.01704663648797613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H3">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>16.60764262914222</v>
+        <v>21.73190881434223</v>
       </c>
       <c r="R3">
-        <v>149.46878366228</v>
+        <v>195.58717932908</v>
       </c>
       <c r="S3">
-        <v>0.6595968005393645</v>
+        <v>0.4786260774119546</v>
       </c>
       <c r="T3">
-        <v>0.6595968005393645</v>
+        <v>0.4786260774119544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H4">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.08429853899111113</v>
+        <v>0.3975495192044444</v>
       </c>
       <c r="R4">
-        <v>0.7586868509200001</v>
+        <v>3.57794567284</v>
       </c>
       <c r="S4">
-        <v>0.003348039685723394</v>
+        <v>0.008755676667861582</v>
       </c>
       <c r="T4">
-        <v>0.003348039685723394</v>
+        <v>0.008755676667861581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H5">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>7.156690833924445</v>
+        <v>3.592783734368889</v>
       </c>
       <c r="R5">
-        <v>64.41021750532001</v>
+        <v>32.33505360932</v>
       </c>
       <c r="S5">
-        <v>0.284238436599221</v>
+        <v>0.07912788519688546</v>
       </c>
       <c r="T5">
-        <v>0.284238436599221</v>
+        <v>0.07912788519688543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3616933333333334</v>
+        <v>0.4732933333333333</v>
       </c>
       <c r="H6">
-        <v>1.08508</v>
+        <v>1.41988</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6351867741147567</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6351867741147565</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.9186709255555556</v>
+        <v>2.262558428386667</v>
       </c>
       <c r="R6">
-        <v>8.26803833</v>
+        <v>20.36302585548</v>
       </c>
       <c r="S6">
-        <v>0.03648635852638638</v>
+        <v>0.04983084894868424</v>
       </c>
       <c r="T6">
-        <v>0.03648635852638638</v>
+        <v>0.04983084894868422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4732933333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.41988</v>
+      </c>
+      <c r="I7">
+        <v>0.6351867741147567</v>
+      </c>
+      <c r="J7">
+        <v>0.6351867741147565</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.172647</v>
+      </c>
+      <c r="N7">
+        <v>0.517941</v>
+      </c>
+      <c r="O7">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P7">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q7">
+        <v>0.08171267412</v>
+      </c>
+      <c r="R7">
+        <v>0.73541406708</v>
+      </c>
+      <c r="S7">
+        <v>0.00179964940139478</v>
+      </c>
+      <c r="T7">
+        <v>0.00179964940139478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J8">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3616933333333334</v>
-      </c>
-      <c r="H7">
-        <v>1.08508</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.635346666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.90604</v>
+      </c>
+      <c r="O8">
+        <v>0.02683720313876748</v>
+      </c>
+      <c r="P8">
+        <v>0.02683720313876747</v>
+      </c>
+      <c r="Q8">
+        <v>0.4445384648622223</v>
+      </c>
+      <c r="R8">
+        <v>4.00084618376</v>
+      </c>
+      <c r="S8">
+        <v>0.009790566650791343</v>
+      </c>
+      <c r="T8">
+        <v>0.00979056665079134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J9">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N7">
-        <v>1.314504</v>
-      </c>
-      <c r="O7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q7">
-        <v>0.15848244448</v>
-      </c>
-      <c r="R7">
-        <v>1.42634200032</v>
-      </c>
-      <c r="S7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="T7">
-        <v>0.006294361918484071</v>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N9">
+        <v>137.749091</v>
+      </c>
+      <c r="O9">
+        <v>0.7535202194331003</v>
+      </c>
+      <c r="P9">
+        <v>0.7535202194331002</v>
+      </c>
+      <c r="Q9">
+        <v>12.48150635732823</v>
+      </c>
+      <c r="R9">
+        <v>112.333557215954</v>
+      </c>
+      <c r="S9">
+        <v>0.2748941420211458</v>
+      </c>
+      <c r="T9">
+        <v>0.2748941420211457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J10">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8399643333333332</v>
+      </c>
+      <c r="N10">
+        <v>2.519893</v>
+      </c>
+      <c r="O10">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="P10">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="Q10">
+        <v>0.2283286246824444</v>
+      </c>
+      <c r="R10">
+        <v>2.054957622142</v>
+      </c>
+      <c r="S10">
+        <v>0.005028736082331686</v>
+      </c>
+      <c r="T10">
+        <v>0.005028736082331685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J11">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.591029666666667</v>
+      </c>
+      <c r="N11">
+        <v>22.773089</v>
+      </c>
+      <c r="O11">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="P11">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="Q11">
+        <v>2.063479715662889</v>
+      </c>
+      <c r="R11">
+        <v>18.571317440966</v>
+      </c>
+      <c r="S11">
+        <v>0.04544631631599073</v>
+      </c>
+      <c r="T11">
+        <v>0.04544631631599071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J12">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.780457</v>
+      </c>
+      <c r="N12">
+        <v>14.341371</v>
+      </c>
+      <c r="O12">
+        <v>0.07845070297336118</v>
+      </c>
+      <c r="P12">
+        <v>0.07845070297336117</v>
+      </c>
+      <c r="Q12">
+        <v>1.299478000252667</v>
+      </c>
+      <c r="R12">
+        <v>11.695302002274</v>
+      </c>
+      <c r="S12">
+        <v>0.02861985402467695</v>
+      </c>
+      <c r="T12">
+        <v>0.02861985402467694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2718313333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.8154940000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3648132258852434</v>
+      </c>
+      <c r="J13">
+        <v>0.3648132258852433</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.172647</v>
+      </c>
+      <c r="N13">
+        <v>0.517941</v>
+      </c>
+      <c r="O13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q13">
+        <v>0.046930864206</v>
+      </c>
+      <c r="R13">
+        <v>0.422377777854</v>
+      </c>
+      <c r="S13">
+        <v>0.001033610790306952</v>
+      </c>
+      <c r="T13">
+        <v>0.001033610790306952</v>
       </c>
     </row>
   </sheetData>
